--- a/resources/experiment 2/metrics/MAPE/incidence/Neuropatía (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Neuropatía (INC).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.49756364171005e+16</v>
+        <v>1.497563641710049e+16</v>
       </c>
       <c r="C2" t="n">
         <v>1.49756364171005e+16</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05339702913057548</v>
+        <v>0.01960181934381909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05339702913057548</v>
+        <v>0.01988817470148027</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05339702913057548</v>
+        <v>2770504191989588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111115334150546.8</v>
+        <v>0.02185858952465563</v>
       </c>
       <c r="C4" t="n">
-        <v>111125824580218.4</v>
+        <v>0.021801488983171</v>
       </c>
       <c r="D4" t="n">
-        <v>111125824580218.4</v>
+        <v>126970743358660</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>799156690402626.6</v>
+        <v>50566869823150.85</v>
       </c>
       <c r="C5" t="n">
-        <v>799156690402626.6</v>
+        <v>19624965754618.2</v>
       </c>
       <c r="D5" t="n">
-        <v>799156690402626.6</v>
+        <v>583084206126640</v>
       </c>
     </row>
   </sheetData>
